--- a/SpotAct_2.xlsx
+++ b/SpotAct_2.xlsx
@@ -4926,10 +4926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4949,7 +4949,7 @@
     <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>205</v>
       </c>
@@ -4961,7 +4961,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>207</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>208</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -5079,16 +5079,8 @@
       <c r="M7" s="5">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="str">
-        <f>+E7</f>
-        <v>GOAL ΧΩΡΙΣ ΣΥΝΟΡΑ</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f>+D7</f>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -5130,16 +5122,8 @@
         <f>+M7+1</f>
         <v>2</v>
       </c>
-      <c r="N8" s="1" t="str">
-        <f t="shared" ref="N8:N69" si="1">+E8</f>
-        <v>ΦΙΛΑΡΑΚΙΑ : ΦΙΛΑΡΑΚΙΑ. ΤΑ</v>
-      </c>
-      <c r="O8" s="1" t="str">
-        <f t="shared" ref="O8:O69" si="2">+D8</f>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
@@ -5178,19 +5162,11 @@
         <v>42028.724999999999</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" ref="M9:M69" si="3">+M8+1</f>
+        <f t="shared" ref="M9:M69" si="1">+M8+1</f>
         <v>3</v>
       </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">THE BIG BANG THEORY </v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -5229,19 +5205,11 @@
         <v>42028.723611111112</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ANNITAGR</v>
-      </c>
-      <c r="O10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
@@ -5280,19 +5248,11 @@
         <v>42028.779861111114</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>**HART OF DIXIE : HART OF DIXIE                  HART OF DIXIE</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
@@ -5331,19 +5291,11 @@
         <v>42028.802083333336</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Ε/Τ:ΜΕΡΙΚΟΙ ΤΟ ΠΡΟΤΙΜΟΥΝ ΚΡΥΟ</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -5382,19 +5334,11 @@
         <v>42028.815972222219</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>COVERT AFFAIRS : COVERT AFFAIRS                 COVERT AFFAIRS</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
@@ -5433,19 +5377,11 @@
         <v>42028.887499999997</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΔΕΛΤΙΟ ΚΑΙΡΟΥ (ΒΡΑΔΙΝΟ)</v>
-      </c>
-      <c r="O14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
@@ -5484,19 +5420,11 @@
         <v>42028.93472222222</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΣΤΗΝ ΥΓΕΙΑ ΜΑΣ</v>
-      </c>
-      <c r="O15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
@@ -5535,19 +5463,11 @@
         <v>42028.943749999999</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Ξ/Τ : ΝΤΕΝΙΣ Ο ΤΡΟΜΕΡΟΣ</v>
-      </c>
-      <c r="O16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
@@ -5586,19 +5506,11 @@
         <v>42028.922222222223</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>E/Τ : ΖΗΤΗΤΑΙ ΨΕΥΤΗΣ</v>
-      </c>
-      <c r="O17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -5637,19 +5549,11 @@
         <v>42028.924305555556</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>FROZEN PLANET</v>
-      </c>
-      <c r="O18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -5688,19 +5592,11 @@
         <v>42028.986805555556</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Ξ/Τ : RΟCK THE AGES </v>
-      </c>
-      <c r="O19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>61</v>
       </c>
@@ -5739,19 +5635,11 @@
         <v>42029.318749999999</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 Γ. ΑΥΤΙΑΣ</v>
-      </c>
-      <c r="O20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>61</v>
       </c>
@@ -5790,19 +5678,11 @@
         <v>42029.378472222219</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MEGA ΣΑΒΒΑΤΟΚΥΡΙΑΚΟ</v>
-      </c>
-      <c r="O21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>61</v>
       </c>
@@ -5841,19 +5721,11 @@
         <v>42029.440972222219</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="N22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 ΤΑΚΗΣ ΧΑΤΖΗΣ</v>
-      </c>
-      <c r="O22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>61</v>
       </c>
@@ -5892,19 +5764,11 @@
         <v>42029.517361111109</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015  ΛΥΡΙΤΖΗΣ-ΟΙΚΟΝΟΜΟΥ</v>
-      </c>
-      <c r="O23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -5943,19 +5807,11 @@
         <v>42029.743750000001</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΣ: ΕΚΛΟΓΕΣ 2015</v>
-      </c>
-      <c r="O24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>61</v>
       </c>
@@ -5994,19 +5850,11 @@
         <v>42029.76666666667</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΣ: ΕΚΛΟΓΕΣ 2015</v>
-      </c>
-      <c r="O25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>61</v>
       </c>
@@ -6045,19 +5893,11 @@
         <v>42030.084722222222</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΣ: ΕΚΛΟΓΕΣ 2015</v>
-      </c>
-      <c r="O26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
@@ -6096,19 +5936,11 @@
         <v>42030.1</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΣ: ΕΚΛΟΓΕΣ 2015</v>
-      </c>
-      <c r="O27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>61</v>
       </c>
@@ -6147,19 +5979,11 @@
         <v>42029.747916666667</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015</v>
-      </c>
-      <c r="O28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>61</v>
       </c>
@@ -6198,19 +6022,11 @@
         <v>42030.111805555556</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 ΜΕ Μ ΧΟΥΚΛΗ</v>
-      </c>
-      <c r="O29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>61</v>
       </c>
@@ -6249,19 +6065,11 @@
         <v>42030.122916666667</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 ΜΕ Μ ΧΟΥΚΛΗ</v>
-      </c>
-      <c r="O30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
@@ -6300,19 +6108,11 @@
         <v>42029.956250000003</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 ΣΙΑ ΚΟΣΙΩΝΗ</v>
-      </c>
-      <c r="O31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>61</v>
       </c>
@@ -6351,19 +6151,11 @@
         <v>42030.000694444447</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="N32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 ΣΙΑ ΚΟΣΙΩΝΗ</v>
-      </c>
-      <c r="O32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
@@ -6402,19 +6194,11 @@
         <v>42030.038888888892</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 ΣΙΑ ΚΟΣΙΩΝΗ</v>
-      </c>
-      <c r="O33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
@@ -6453,19 +6237,11 @@
         <v>42030.104861111111</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015 ΣΙΑ ΚΟΣΙΩΝΗ</v>
-      </c>
-      <c r="O34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>61</v>
       </c>
@@ -6504,19 +6280,11 @@
         <v>42030.100694444445</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015</v>
-      </c>
-      <c r="O35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>61</v>
       </c>
@@ -6555,19 +6323,11 @@
         <v>42030.102777777778</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΚΛΟΓΕΣ 2015</v>
-      </c>
-      <c r="O36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>97</v>
       </c>
@@ -6606,19 +6366,11 @@
         <v>42030.839583333334</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ΚΑΙΡΟΣ </v>
-      </c>
-      <c r="O37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>97</v>
       </c>
@@ -6657,19 +6409,11 @@
         <v>42030.875694444447</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>**ΕΣ: / ΚΕΝΤΡΙΚΟ ΔΕΛΤΙΟ : ΔΕΛΤΙΟ ΕΙΔΗΣΕΩΝ ΚΕΝΤΡΙΚΟ</v>
-      </c>
-      <c r="O38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>97</v>
       </c>
@@ -6708,19 +6452,11 @@
         <v>42030.915972222225</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ANT1 NEWS - 20:00</v>
-      </c>
-      <c r="O39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>97</v>
       </c>
@@ -6759,19 +6495,11 @@
         <v>42030.894444444442</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΚΕΝΤΡΙΚΟ ΔΕΛΤΙΟ ΕΙΔΗΣΕΩΝ</v>
-      </c>
-      <c r="O40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>97</v>
       </c>
@@ -6810,19 +6538,11 @@
         <v>42030.840277777781</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>HOT SEAT</v>
-      </c>
-      <c r="O41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>97</v>
       </c>
@@ -6861,19 +6581,11 @@
         <v>42030.917361111111</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="N42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">ΔΕΛΤΙΟ ΚΑΙΡΟΥ </v>
-      </c>
-      <c r="O42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>97</v>
       </c>
@@ -6912,19 +6624,11 @@
         <v>42030.9</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="N43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΔΕΛΤΙΟ ΚΑΙΡΟΥ (ΒΡΑΔΙΝΟ)</v>
-      </c>
-      <c r="O43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>97</v>
       </c>
@@ -6963,19 +6667,11 @@
         <v>42030.90902777778</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΜΗΝ ΑΡΧΙΖΕΙΣ ΤΗΝ</v>
-      </c>
-      <c r="O44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>97</v>
       </c>
@@ -7014,19 +6710,11 @@
         <v>42030.898611111108</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="N45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>**Ξ/Τ : 2 GUNS</v>
-      </c>
-      <c r="O45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>97</v>
       </c>
@@ -7065,19 +6753,11 @@
         <v>42030.925000000003</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="N46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>LMB: Ξ/Τ : 2 GUNS</v>
-      </c>
-      <c r="O46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>97</v>
       </c>
@@ -7116,19 +6796,11 @@
         <v>42030.940972222219</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="N47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΣΚΑΙ ΘΕΜΑ</v>
-      </c>
-      <c r="O47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>97</v>
       </c>
@@ -7167,19 +6839,11 @@
         <v>42030.970138888886</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="N48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>LMB:Ξ/Τ : THE BANK JOB ΤΟ</v>
-      </c>
-      <c r="O48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>97</v>
       </c>
@@ -7218,19 +6882,11 @@
         <v>42030.977777777778</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="N49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΚΑΤΩ ΠΑΡΤΑΛΙ</v>
-      </c>
-      <c r="O49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>97</v>
       </c>
@@ -7269,19 +6925,11 @@
         <v>42030.98541666667</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="N50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΡΑΔΙΟ ΑΡΒΥΛΑ</v>
-      </c>
-      <c r="O50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>132</v>
       </c>
@@ -7320,19 +6968,11 @@
         <v>42031.895833333336</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΔΕΛΤΙΟ ΚΑΙΡΟΥ (ΒΡΑΔΙΝΟ)</v>
-      </c>
-      <c r="O51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>132</v>
       </c>
@@ -7371,19 +7011,11 @@
         <v>42031.913888888892</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="N52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΜΗΝ ΑΡΧΙΖΕΙΣ ΤΗ ΜΟΥΡΜΟΥΡΑ</v>
-      </c>
-      <c r="O52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>132</v>
       </c>
@@ -7422,19 +7054,11 @@
         <v>42031.912499999999</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="N53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>*NCIS : NCIS</v>
-      </c>
-      <c r="O53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>132</v>
       </c>
@@ -7473,19 +7097,11 @@
         <v>42032.02847222222</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="N54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Ξ/Τ : Ο ΠΛΗΡΟΦΟΡΙΟΔΟΤΗΣ</v>
-      </c>
-      <c r="O54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>132</v>
       </c>
@@ -7524,19 +7140,11 @@
         <v>42031.962500000001</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="N55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΤΑΜΑΜ  -Ε-</v>
-      </c>
-      <c r="O55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>132</v>
       </c>
@@ -7575,19 +7183,11 @@
         <v>42031.933333333334</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="N56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CSI LAS MIAMI</v>
-      </c>
-      <c r="O56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>132</v>
       </c>
@@ -7626,19 +7226,11 @@
         <v>42031.979166666664</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="N57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΕΘΝΙΚΗ ΕΛΛΑΔΟΣ</v>
-      </c>
-      <c r="O57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>132</v>
       </c>
@@ -7677,19 +7269,11 @@
         <v>42032.002083333333</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="N58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>LMB:ΤΑ ΚΑΡΝΤΑΣΙΑΝΣ</v>
-      </c>
-      <c r="O58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>132</v>
       </c>
@@ -7728,19 +7312,11 @@
         <v>42031.973611111112</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="N59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CSI LAS VEGAS</v>
-      </c>
-      <c r="O59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>153</v>
       </c>
@@ -7779,19 +7355,11 @@
         <v>42032.79583333333</v>
       </c>
       <c r="M60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="N60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΜΠΡΟΥΣΚΟ</v>
-      </c>
-      <c r="O60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ANT1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>153</v>
       </c>
@@ -7830,19 +7398,11 @@
         <v>42032.859027777777</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="N61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>HOT SEAT</v>
-      </c>
-      <c r="O61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>153</v>
       </c>
@@ -7881,19 +7441,11 @@
         <v>42032.892361111109</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="N62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΔΕΛΤΙΟ ΚΑΙΡΟΥ (ΒΡΑΔΙΝΟ)</v>
-      </c>
-      <c r="O62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>153</v>
       </c>
@@ -7932,19 +7484,11 @@
         <v>42032.894444444442</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="N63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΜΗΝ ΑΡΧΙΖΕΙΣ ΤΗΝ (E)</v>
-      </c>
-      <c r="O63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>153</v>
       </c>
@@ -7983,19 +7527,11 @@
         <v>42032.915972222225</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="N64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NCIS : NCIS</v>
-      </c>
-      <c r="O64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>153</v>
       </c>
@@ -8034,19 +7570,11 @@
         <v>42032.926388888889</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="N65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ΔΙΚΑΙΩΣΗ</v>
-      </c>
-      <c r="O65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MEGA</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>153</v>
       </c>
@@ -8085,19 +7613,11 @@
         <v>42032.938194444447</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="N66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>LMB:ΒΡΑΔΙΝΗ ΕΛΛΗΝΙΚΗ : ΞΥΠΟΛΗΤΟΣ</v>
-      </c>
-      <c r="O66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ALPHA</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>153</v>
       </c>
@@ -8136,19 +7656,11 @@
         <v>42032.98333333333</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="N67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>LMB: Ξ/Τ : Η ΝΥΧΤΑ ΜΑΣ ΑΝΗΚΕΙ</v>
-      </c>
-      <c r="O67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>153</v>
       </c>
@@ -8187,19 +7699,11 @@
         <v>42032.95416666667</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="N68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Ξ/Τ : Η ΝΥΧΤΑ ΜΑΣ ΑΝΗΚΕΙ</v>
-      </c>
-      <c r="O68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>STAR</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>153</v>
       </c>
@@ -8238,19 +7742,11 @@
         <v>42032.94027777778</v>
       </c>
       <c r="M69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="N69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>CSI LAS MIAMI</v>
-      </c>
-      <c r="O69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ΣΚΑΙ</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -8263,7 +7759,7 @@
       <c r="J70" s="10"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -8276,7 +7772,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -8289,7 +7785,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>

--- a/SpotAct_2.xlsx
+++ b/SpotAct_2.xlsx
@@ -4929,7 +4929,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+      <selection activeCell="C6" sqref="C6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
